--- a/NotesMarketPlaceHTML/Database/notesdatabase.xlsx
+++ b/NotesMarketPlaceHTML/Database/notesdatabase.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abc\Desktop\NotesMarketPlaceHTML\NotesMarketPlaceHTML\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE1C275-DC41-44EF-A3C5-8498AEACD911}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234AB2D1-D3E7-4C10-9548-AFBA06FC2CF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="220">
   <si>
     <t>Field Name</t>
   </si>
@@ -280,9 +280,6 @@
     <t>Date and Time when userID created a record.</t>
   </si>
   <si>
-    <t>Table: DownloadedNotes</t>
-  </si>
-  <si>
     <t>This table contains information about notes downloaded.</t>
   </si>
   <si>
@@ -317,9 +314,6 @@
     <t>SuperAdmin can enter LinkedIn URL</t>
   </si>
   <si>
-    <t>Add/EditCategory</t>
-  </si>
-  <si>
     <t>Table: SpamReports</t>
   </si>
   <si>
@@ -347,9 +341,6 @@
     <t>Admin will add any type of category and edit if required for sellers to sell under that category.</t>
   </si>
   <si>
-    <t>Table: Add/EditTypes</t>
-  </si>
-  <si>
     <t>Administrator will add the types of notes for sellers and edit if required.</t>
   </si>
   <si>
@@ -359,9 +350,6 @@
     <t>Date and Time when Admin created a record.</t>
   </si>
   <si>
-    <t>Table: Add/EditCountry</t>
-  </si>
-  <si>
     <t>Administrator will add the countries and edit if required.</t>
   </si>
   <si>
@@ -393,9 +381,6 @@
   </si>
   <si>
     <t>Admin needs to describe the type of note(Required Information)</t>
-  </si>
-  <si>
-    <t>Admiin needs to enter type of note(Required Information)</t>
   </si>
   <si>
     <t>Admin needs to enter Category Name(Required Information)</t>
@@ -1067,38 +1052,9 @@
     <t>System enter data in this field(Approve, Reject, In Review)</t>
   </si>
   <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>NoteID</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">FOREIGN KEY relationship with </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">SellerNotes </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>table.</t>
-    </r>
-  </si>
-  <si>
     <t>Date and time when system has created a record.</t>
   </si>
   <si>
@@ -1118,30 +1074,6 @@
   </si>
   <si>
     <t>FOREIGN KEY relationship with User</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">FOREIGN KEY relationship with </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">SellerNotes </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>table.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1197,17 +1129,116 @@
     </r>
   </si>
   <si>
-    <t>Table: SellerNotesAttachements</t>
-  </si>
-  <si>
     <t xml:space="preserve">This table is for storing multiple PDFs file for particular seller note entry. </t>
+  </si>
+  <si>
+    <t>ReviewedByID</t>
+  </si>
+  <si>
+    <t>AgainstDownloadsID</t>
+  </si>
+  <si>
+    <t>Table: Downloads</t>
+  </si>
+  <si>
+    <t>FOREIGN KEY relationship with Downloads  table.</t>
+  </si>
+  <si>
+    <r>
+      <t>FOREIGN KEY relationship with Users</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>table.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>FOREIGN KEY relationship with NoteDetails</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>table.</t>
+    </r>
+  </si>
+  <si>
+    <t>Table: SellerNotesAttachments</t>
+  </si>
+  <si>
+    <r>
+      <t>FOREIGN KEY relationship with  NoteDetails</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>table.</t>
+    </r>
+  </si>
+  <si>
+    <t>AgainstDownloadID</t>
+  </si>
+  <si>
+    <t>Table: AddTypes</t>
+  </si>
+  <si>
+    <t>AddCategory</t>
+  </si>
+  <si>
+    <t>Table: AddCountry</t>
+  </si>
+  <si>
+    <t>Admin needs to enter type of note(Required Information)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1246,14 +1277,6 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1398,7 +1421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1451,9 +1474,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1467,17 +1487,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1500,6 +1531,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1518,15 +1555,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1842,10 +1870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E217"/>
+  <dimension ref="A1:F216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E156" sqref="E156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1858,40 +1886,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
     </row>
     <row r="4" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="44"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
@@ -1942,7 +1970,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -1959,7 +1987,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
@@ -1976,7 +2004,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
@@ -1993,7 +2021,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
@@ -2010,7 +2038,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
@@ -2027,7 +2055,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
@@ -2084,7 +2112,7 @@
         <v>20</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2133,26 +2161,26 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
     </row>
     <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>1</v>
@@ -2292,22 +2320,22 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
+      <c r="A36" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
     </row>
     <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
+      <c r="A37" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
     </row>
     <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
@@ -2343,7 +2371,7 @@
     </row>
     <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>6</v>
@@ -2353,7 +2381,7 @@
         <v>7</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2407,7 +2435,7 @@
     </row>
     <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>12</v>
@@ -2424,7 +2452,7 @@
     </row>
     <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>12</v>
@@ -2458,7 +2486,7 @@
     </row>
     <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>12</v>
@@ -2475,7 +2503,7 @@
     </row>
     <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>12</v>
@@ -2492,7 +2520,7 @@
     </row>
     <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>12</v>
@@ -2509,7 +2537,7 @@
     </row>
     <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>12</v>
@@ -2526,7 +2554,7 @@
     </row>
     <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>12</v>
@@ -2543,7 +2571,7 @@
     </row>
     <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>12</v>
@@ -2653,13 +2681,13 @@
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
+      <c r="A61" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
     </row>
     <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
@@ -2704,7 +2732,7 @@
     </row>
     <row r="65" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>6</v>
@@ -2714,12 +2742,12 @@
         <v>7</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>12</v>
@@ -2731,12 +2759,12 @@
         <v>7</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>6</v>
@@ -2746,12 +2774,12 @@
         <v>7</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="11" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>6</v>
@@ -2761,12 +2789,12 @@
         <v>20</v>
       </c>
       <c r="E68" s="11" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>6</v>
@@ -2776,12 +2804,12 @@
         <v>20</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>12</v>
@@ -2793,7 +2821,7 @@
         <v>7</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2808,7 +2836,7 @@
         <v>20</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -2825,12 +2853,12 @@
         <v>20</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>12</v>
@@ -2864,7 +2892,7 @@
     </row>
     <row r="75" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>12</v>
@@ -2932,7 +2960,7 @@
     </row>
     <row r="79" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>16</v>
@@ -2949,10 +2977,10 @@
     </row>
     <row r="80" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="3" t="s">
@@ -2964,7 +2992,7 @@
     </row>
     <row r="81" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>76</v>
@@ -2979,7 +3007,7 @@
     </row>
     <row r="82" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>12</v>
@@ -2991,7 +3019,7 @@
         <v>20</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
@@ -3093,7 +3121,7 @@
       <c r="D89" s="19"/>
       <c r="E89" s="19"/>
     </row>
-    <row r="90" spans="1:5" s="25" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="19"/>
       <c r="B90" s="19"/>
       <c r="C90" s="20"/>
@@ -3101,37 +3129,37 @@
       <c r="E90" s="19"/>
     </row>
     <row r="91" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="B91" s="51"/>
-      <c r="C91" s="51"/>
-      <c r="D91" s="51"/>
-      <c r="E91" s="51"/>
+      <c r="A91" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="B91" s="48"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="48"/>
     </row>
     <row r="92" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="B92" s="42"/>
-      <c r="C92" s="42"/>
-      <c r="D92" s="42"/>
-      <c r="E92" s="42"/>
+      <c r="A92" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="B92" s="46"/>
+      <c r="C92" s="46"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="46"/>
     </row>
     <row r="93" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="52" t="s">
+      <c r="A93" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B93" s="52" t="s">
+      <c r="B93" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="52" t="s">
+      <c r="C93" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="52" t="s">
+      <c r="D93" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E93" s="52" t="s">
+      <c r="E93" s="32" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3140,7 +3168,7 @@
         <v>5</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="4" t="s">
@@ -3152,22 +3180,22 @@
     </row>
     <row r="95" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>200</v>
+        <v>6</v>
       </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>12</v>
@@ -3182,7 +3210,7 @@
     </row>
     <row r="97" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>12</v>
@@ -3193,439 +3221,454 @@
       <c r="D97" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E97" s="50" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
+      <c r="E97" s="31" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
+      <c r="C98" s="35"/>
+      <c r="D98" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" s="35" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" s="35"/>
+      <c r="D99" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E99" s="35" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B100" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" s="35"/>
+      <c r="D100" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E100" s="35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B101" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" s="35"/>
+      <c r="D101" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E101" s="35" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B102" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" s="35"/>
+      <c r="D102" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="C99" s="4"/>
-      <c r="D99" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
+    </row>
+    <row r="103" spans="1:5" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="20"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="33"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="22"/>
+      <c r="B104" s="22"/>
+      <c r="C104" s="23"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="22"/>
+    </row>
+    <row r="105" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="B105" s="39"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="39"/>
+    </row>
+    <row r="106" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B106" s="47"/>
+      <c r="C106" s="47"/>
+      <c r="D106" s="47"/>
+      <c r="E106" s="47"/>
+    </row>
+    <row r="107" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B107" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C107" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C108" s="26"/>
+      <c r="D108" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E108" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B110" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="30">
+        <v>100</v>
+      </c>
+      <c r="D110" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E110" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="B111" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="30">
+        <v>50</v>
+      </c>
+      <c r="D111" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E111" s="29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B112" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="26">
+        <v>100</v>
+      </c>
+      <c r="D112" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="B113" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="30">
+        <v>100</v>
+      </c>
+      <c r="D113" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="B114" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" s="26">
+        <v>50</v>
+      </c>
+      <c r="D114" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A115" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B115" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="26">
+        <v>25</v>
+      </c>
+      <c r="D115" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A116" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B116" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" s="26"/>
+      <c r="D116" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E116" s="25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A117" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B117" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C117" s="26"/>
+      <c r="D117" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E117" s="25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B118" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C100" s="4"/>
-      <c r="D100" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
+      <c r="C118" s="26"/>
+      <c r="D118" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118" s="25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A119" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C101" s="4"/>
-      <c r="D101" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C102" s="4"/>
-      <c r="D102" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102" s="4" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B103" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C103" s="4"/>
-      <c r="D103" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E103" s="26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B104" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C104" s="4"/>
-      <c r="D104" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E104" s="26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B105" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C105" s="4"/>
-      <c r="D105" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E105" s="26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A106" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B106" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C106" s="4"/>
-      <c r="D106" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E106" s="26" t="s">
+      <c r="B119" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C119" s="26"/>
+      <c r="D119" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119" s="25" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="22"/>
-      <c r="B108" s="22"/>
-      <c r="C108" s="23"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="22"/>
-    </row>
-    <row r="109" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="B109" s="32"/>
-      <c r="C109" s="32"/>
-      <c r="D109" s="32"/>
-      <c r="E109" s="32"/>
-    </row>
-    <row r="110" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="B110" s="33"/>
-      <c r="C110" s="33"/>
-      <c r="D110" s="33"/>
-      <c r="E110" s="33"/>
-    </row>
-    <row r="111" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A111" s="28" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="22"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="23"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="22"/>
+    </row>
+    <row r="122" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A122" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B122" s="39"/>
+      <c r="C122" s="39"/>
+      <c r="D122" s="39"/>
+      <c r="E122" s="39"/>
+    </row>
+    <row r="123" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A123" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B123" s="47"/>
+      <c r="C123" s="47"/>
+      <c r="D123" s="47"/>
+      <c r="E123" s="47"/>
+    </row>
+    <row r="124" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A124" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B111" s="28" t="s">
+      <c r="B124" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C111" s="29" t="s">
+      <c r="C124" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D111" s="28" t="s">
+      <c r="D124" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E111" s="28" t="s">
+      <c r="E124" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A112" s="26" t="s">
+    <row r="125" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B112" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C112" s="27"/>
-      <c r="D112" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E112" s="26" t="s">
+      <c r="B125" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="4"/>
+      <c r="D125" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="B113" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="C113" s="24"/>
-      <c r="D113" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E113" s="24" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A114" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="B114" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" s="31">
+    <row r="126" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" s="4">
         <v>100</v>
       </c>
-      <c r="D114" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E114" s="30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A115" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="B115" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C115" s="31">
-        <v>50</v>
-      </c>
-      <c r="D115" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E115" s="30" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A116" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="B116" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C116" s="27">
+      <c r="D126" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="4">
+        <v>15</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" s="4">
         <v>100</v>
       </c>
-      <c r="D116" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E116" s="30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="B117" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C117" s="31">
-        <v>100</v>
-      </c>
-      <c r="D117" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E117" s="30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="B118" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118" s="27">
-        <v>50</v>
-      </c>
-      <c r="D118" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E118" s="26" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="B119" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119" s="27">
-        <v>25</v>
-      </c>
-      <c r="D119" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E119" s="30" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A120" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B120" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C120" s="27"/>
-      <c r="D120" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E120" s="26" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A121" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B121" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C121" s="27"/>
-      <c r="D121" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E121" s="26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" s="21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A122" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B122" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="C122" s="27"/>
-      <c r="D122" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E122" s="26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A123" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B123" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C123" s="27"/>
-      <c r="D123" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E123" s="26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="22"/>
-      <c r="B124" s="22"/>
-      <c r="C124" s="23"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="22"/>
-    </row>
-    <row r="126" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A126" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B126" s="32"/>
-      <c r="C126" s="32"/>
-      <c r="D126" s="32"/>
-      <c r="E126" s="32"/>
-    </row>
-    <row r="127" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A127" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="B127" s="33"/>
-      <c r="C127" s="33"/>
-      <c r="D127" s="33"/>
-      <c r="E127" s="33"/>
-    </row>
-    <row r="128" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A128" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C128" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>57</v>
+      <c r="D128" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C129" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="C129" s="4">
+        <v>100</v>
+      </c>
       <c r="D129" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>164</v>
+        <v>89</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>12</v>
@@ -3634,1140 +3677,1118 @@
         <v>100</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>165</v>
+        <v>90</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C131" s="4">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A132" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132" s="4">
-        <v>100</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A133" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133" s="4">
-        <v>100</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A132" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C132" s="4"/>
+      <c r="D132" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E132" s="13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A133" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C133" s="4"/>
+      <c r="D133" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E133" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C134" s="4">
-        <v>100</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C134" s="4"/>
       <c r="D134" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C135" s="4">
+        <v>6</v>
+      </c>
+      <c r="C135" s="4"/>
+      <c r="D135" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" s="4"/>
+      <c r="D136" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C137" s="4"/>
+      <c r="D137" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A140" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="B140" s="39"/>
+      <c r="C140" s="39"/>
+      <c r="D140" s="39"/>
+      <c r="E140" s="39"/>
+    </row>
+    <row r="141" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A141" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="B141" s="47"/>
+      <c r="C141" s="47"/>
+      <c r="D141" s="47"/>
+      <c r="E141" s="47"/>
+    </row>
+    <row r="142" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A142" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E142" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C143" s="4"/>
+      <c r="D143" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" s="4">
         <v>100</v>
       </c>
-      <c r="D135" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A136" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C136" s="4"/>
-      <c r="D136" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E136" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A137" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C137" s="4"/>
-      <c r="D137" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E137" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A138" s="3" t="s">
+      <c r="D144" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B146" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C138" s="4"/>
-      <c r="D138" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E138" s="3" t="s">
+      <c r="C146" s="4"/>
+      <c r="D146" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E146" s="3" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A139" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C139" s="4"/>
-      <c r="D139" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C140" s="4"/>
-      <c r="D140" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A141" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C141" s="4"/>
-      <c r="D141" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A144" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B144" s="32"/>
-      <c r="C144" s="32"/>
-      <c r="D144" s="32"/>
-      <c r="E144" s="32"/>
-    </row>
-    <row r="145" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A145" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="B145" s="33"/>
-      <c r="C145" s="33"/>
-      <c r="D145" s="33"/>
-      <c r="E145" s="33"/>
-    </row>
-    <row r="146" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A146" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B146" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C146" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D146" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E146" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C147" s="4"/>
       <c r="D147" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C148" s="4">
-        <v>100</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C148" s="4"/>
       <c r="D148" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C149" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C149" s="4"/>
+      <c r="D149" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A152" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="B152" s="39"/>
+      <c r="C152" s="39"/>
+      <c r="D152" s="39"/>
+      <c r="E152" s="39"/>
+    </row>
+    <row r="153" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A153" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B153" s="47"/>
+      <c r="C153" s="47"/>
+      <c r="D153" s="47"/>
+      <c r="E153" s="47"/>
+    </row>
+    <row r="154" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A154" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E154" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155" s="4"/>
+      <c r="D155" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" s="4">
+        <v>100</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D149" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A150" s="3" t="s">
+      <c r="D157" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B158" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C150" s="4"/>
-      <c r="D150" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A151" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C151" s="4"/>
-      <c r="D151" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A152" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C152" s="4"/>
-      <c r="D152" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A153" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C153" s="4"/>
-      <c r="D153" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A156" s="32" t="s">
+      <c r="C158" s="4"/>
+      <c r="D158" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E158" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="B156" s="32"/>
-      <c r="C156" s="32"/>
-      <c r="D156" s="32"/>
-      <c r="E156" s="32"/>
-    </row>
-    <row r="157" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A157" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="B157" s="33"/>
-      <c r="C157" s="33"/>
-      <c r="D157" s="33"/>
-      <c r="E157" s="33"/>
-    </row>
-    <row r="158" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A158" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B158" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C158" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D158" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E158" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>161</v>
+        <v>23</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C160" s="4">
-        <v>100</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C160" s="4"/>
       <c r="D160" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>162</v>
+        <v>25</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C161" s="4"/>
       <c r="D161" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A162" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A164" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="B164" s="39"/>
+      <c r="C164" s="39"/>
+      <c r="D164" s="39"/>
+      <c r="E164" s="39"/>
+    </row>
+    <row r="165" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A165" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B165" s="47"/>
+      <c r="C165" s="47"/>
+      <c r="D165" s="47"/>
+      <c r="E165" s="47"/>
+    </row>
+    <row r="166" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A166" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C166" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D166" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E166" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A167" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C167" s="4"/>
+      <c r="D167" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A168" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C168" s="4">
+        <v>100</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169" s="4">
+        <v>10</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B170" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C162" s="4"/>
-      <c r="D162" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A163" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C163" s="4"/>
-      <c r="D163" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A164" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C164" s="4"/>
-      <c r="D164" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E164" s="3" t="s">
+      <c r="C170" s="4"/>
+      <c r="D170" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E170" s="3" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A165" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C165" s="4"/>
-      <c r="D165" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A168" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="B168" s="32"/>
-      <c r="C168" s="32"/>
-      <c r="D168" s="32"/>
-      <c r="E168" s="32"/>
-    </row>
-    <row r="169" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A169" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="B169" s="33"/>
-      <c r="C169" s="33"/>
-      <c r="D169" s="33"/>
-      <c r="E169" s="33"/>
-    </row>
-    <row r="170" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A170" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B170" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C170" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D170" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E170" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>159</v>
+        <v>23</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C172" s="4">
-        <v>100</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C172" s="4"/>
       <c r="D172" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C173" s="4">
-        <v>10</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C173" s="4"/>
       <c r="D173" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A174" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A176" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="B176" s="39"/>
+      <c r="C176" s="39"/>
+      <c r="D176" s="39"/>
+      <c r="E176" s="39"/>
+    </row>
+    <row r="177" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A177" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B177" s="52"/>
+      <c r="C177" s="52"/>
+      <c r="D177" s="52"/>
+      <c r="E177" s="52"/>
+    </row>
+    <row r="178" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A178" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C178" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D178" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E178" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179" s="4"/>
+      <c r="D179" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" s="4"/>
+      <c r="D180" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B181" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C181" s="17"/>
+      <c r="D181" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E181" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A182" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F182" s="36"/>
+    </row>
+    <row r="183" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" s="4">
+        <v>200</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A184" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B184" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C174" s="4"/>
-      <c r="D174" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A175" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C175" s="4"/>
-      <c r="D175" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A176" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C176" s="4"/>
-      <c r="D176" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A177" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C177" s="4"/>
-      <c r="D177" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A180" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="B180" s="32"/>
-      <c r="C180" s="32"/>
-      <c r="D180" s="32"/>
-      <c r="E180" s="32"/>
-    </row>
-    <row r="181" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A181" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="B181" s="46"/>
-      <c r="C181" s="46"/>
-      <c r="D181" s="46"/>
-      <c r="E181" s="46"/>
-    </row>
-    <row r="182" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A182" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B182" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C182" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D182" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E182" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A183" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C183" s="4"/>
-      <c r="D183" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E183" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A184" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="C184" s="4"/>
       <c r="D184" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" s="22" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B185" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C185" s="17"/>
-      <c r="D185" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E185" s="11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C185" s="4"/>
+      <c r="D185" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>158</v>
+        <v>23</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C186" s="4">
-        <v>200</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C186" s="4"/>
       <c r="D186" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C187" s="4"/>
       <c r="D187" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A188" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C188" s="4"/>
-      <c r="D188" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A189" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C189" s="4"/>
-      <c r="D189" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E189" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A190" s="39" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A190" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C190" s="4"/>
-      <c r="D190" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E190" s="3" t="s">
-        <v>98</v>
+      <c r="B190" s="39"/>
+      <c r="C190" s="39"/>
+      <c r="D190" s="39"/>
+      <c r="E190" s="39"/>
+    </row>
+    <row r="191" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A191" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B191" s="47"/>
+      <c r="C191" s="47"/>
+      <c r="D191" s="47"/>
+      <c r="E191" s="47"/>
+    </row>
+    <row r="192" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A192" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C192" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E192" s="10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A193" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="B193" s="32"/>
-      <c r="C193" s="32"/>
-      <c r="D193" s="32"/>
-      <c r="E193" s="32"/>
+      <c r="A193" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C193" s="4"/>
+      <c r="D193" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="194" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A194" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="B194" s="33"/>
-      <c r="C194" s="33"/>
-      <c r="D194" s="33"/>
-      <c r="E194" s="33"/>
+      <c r="A194" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C194" s="4">
+        <v>50</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="195" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A195" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B195" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C195" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D195" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E195" s="10" t="s">
-        <v>57</v>
+      <c r="A195" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C195" s="4">
+        <v>50</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C196" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="C196" s="4">
+        <v>100</v>
+      </c>
       <c r="D196" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C197" s="4">
-        <v>50</v>
+      <c r="C197" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C198" s="4">
-        <v>50</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C198" s="4"/>
       <c r="D198" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C199" s="4">
-        <v>100</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C199" s="4"/>
       <c r="D199" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>155</v>
+        <v>23</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>35</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C200" s="4"/>
       <c r="D200" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C201" s="4"/>
       <c r="D201" s="3" t="s">
         <v>20</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A202" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A204" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="B204" s="54"/>
+      <c r="C204" s="54"/>
+      <c r="D204" s="54"/>
+      <c r="E204" s="55"/>
+    </row>
+    <row r="205" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A205" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B205" s="50"/>
+      <c r="C205" s="50"/>
+      <c r="D205" s="50"/>
+      <c r="E205" s="51"/>
+    </row>
+    <row r="206" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A206" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B206" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C206" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D206" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E206" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A207" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B207" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C207" s="4"/>
+      <c r="D207" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207" s="25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A208" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B208" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C208" s="17"/>
+      <c r="D208" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E208" s="29" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A209" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C209" s="4"/>
+      <c r="D209" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" s="34" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A210" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C210" s="4"/>
+      <c r="D210" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A211" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B211" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C211" s="4"/>
+      <c r="D211" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E211" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A212" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B212" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D212" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E212" s="25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A213" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B213" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C213" s="4"/>
+      <c r="D213" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E213" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A214" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B202" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C202" s="4"/>
-      <c r="D202" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E202" s="3" t="s">
+      <c r="B214" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C214" s="4"/>
+      <c r="D214" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E214" s="25" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A203" s="3" t="s">
+    <row r="215" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A215" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B215" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C203" s="4"/>
-      <c r="D203" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E203" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A204" s="3" t="s">
+      <c r="C215" s="4"/>
+      <c r="D215" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E215" s="25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A216" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B204" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C204" s="4"/>
-      <c r="D204" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E204" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A207" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="B207" s="48"/>
-      <c r="C207" s="48"/>
-      <c r="D207" s="48"/>
-      <c r="E207" s="49"/>
-    </row>
-    <row r="208" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A208" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="B208" s="44"/>
-      <c r="C208" s="44"/>
-      <c r="D208" s="44"/>
-      <c r="E208" s="45"/>
-    </row>
-    <row r="209" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A209" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B209" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C209" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D209" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E209" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A210" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B210" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C210" s="4"/>
-      <c r="D210" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E210" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A211" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B211" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C211" s="17"/>
-      <c r="D211" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E211" s="11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A212" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B212" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C212" s="4"/>
-      <c r="D212" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E212" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A213" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C213" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E213" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A214" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C214" s="4"/>
-      <c r="D214" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E214" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A215" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B215" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C215" s="4"/>
-      <c r="D215" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E215" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A216" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>19</v>
+      <c r="B216" s="25" t="s">
+        <v>6</v>
       </c>
       <c r="C216" s="4"/>
-      <c r="D216" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E216" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A217" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C217" s="4"/>
-      <c r="D217" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E217" s="3" t="s">
+      <c r="D216" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E216" s="25" t="s">
         <v>78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A208:E208"/>
-    <mergeCell ref="A181:E181"/>
-    <mergeCell ref="A193:E193"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A145:E145"/>
-    <mergeCell ref="A207:E207"/>
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="A180:E180"/>
-    <mergeCell ref="A156:E156"/>
-    <mergeCell ref="A157:E157"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A169:E169"/>
+    <mergeCell ref="A205:E205"/>
+    <mergeCell ref="A177:E177"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="A141:E141"/>
+    <mergeCell ref="A204:E204"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A176:E176"/>
+    <mergeCell ref="A152:E152"/>
+    <mergeCell ref="A153:E153"/>
+    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="A165:E165"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="A127:E127"/>
+    <mergeCell ref="A122:E122"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="A61:E61"/>
+    <mergeCell ref="A91:E91"/>
+    <mergeCell ref="A92:E92"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A106:E106"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A61:E61"/>
-    <mergeCell ref="A91:E91"/>
-    <mergeCell ref="A92:E92"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="A110:E110"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
